--- a/exports/releve_05.xlsx
+++ b/exports/releve_05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Banque</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Période</t>
   </si>
   <si>
+    <t>25/12/2019 - 23/12/2019</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -43,28 +46,37 @@
     <t>Sens</t>
   </si>
   <si>
+    <t>25/12/2019</t>
+  </si>
+  <si>
+    <t>‘Statement of Account: 2518XXXXXXXX0946 For Period: 26/9/2019 to</t>
+  </si>
+  <si>
     <t>23/12/2019</t>
   </si>
   <si>
-    <t>|cr |88992 |218Z3SBIOC Ref No3000087061</t>
+    <t>|cr |88992 |218Z3SBIOC Ref No3000087061 ages 390.00 cw |ees.7= | UP7935119025907/"2V/sandeepchodhany@ybl/SANDEEP</t>
   </si>
   <si>
     <t>226.14</t>
   </si>
   <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>12/12/2019</t>
+  </si>
+  <si>
+    <t>3 [DR [273.78 | ATMWDR 934616013196 +SINGHAL TOWER LABOUR</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
     <t>Dr</t>
   </si>
   <si>
-    <t>12/12/2019</t>
-  </si>
-  <si>
-    <t>[DR [273.78 | ATMWDR 934616013196 +SINGHAL TOWER LABOUR</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>[DR [3773.78 | IMPS-0UT/934616239787/SBIN0010352/38160497052</t>
+    <t>[DR [3773.78 | IMPS-0UT/934616239787/SBIN00103160497052 ay 12s000 [or ]4sza.7e | U&gt;Y994664173747/°2V/singhsonalt1@yBVMr SONAL Haazene 300000 [or |z3s:7= | UpY994857102800/P2v/e860521005@ybUMOHHAMMAD</t>
   </si>
   <si>
     <t>750.00</t>
@@ -82,7 +94,7 @@
     <t>04/12/2019</t>
   </si>
   <si>
-    <t>[DR [229.78 | UP/933884521318/P2M/IRCTCINAPP@ybI/IRCTC</t>
+    <t>[DR [229.78 | UP/933884521318/P2M/IRCTCINAPP@ybI/IRCTC ouaENTD siooo Jor |7a7s7 | YPvaaae6sse04e0/"2V/7838767986@yb/Mr ABDUL</t>
   </si>
   <si>
     <t>508.19</t>
@@ -444,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +484,142 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/exports/releve_05.xlsx
+++ b/exports/releve_05.xlsx
@@ -14,26 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Banque</t>
   </si>
   <si>
+    <t>tistral aigiaicy alas LE] punjab national bank</t>
+  </si>
+  <si>
     <t>Compte</t>
   </si>
   <si>
     <t>Titulaire</t>
   </si>
   <si>
-    <t>ay 12s000 [or ]4sza.7e | U&gt;Y994664173747/°2V/singhsonalt1@yBVMr SONAL</t>
+    <t>A</t>
   </si>
   <si>
     <t>Période</t>
   </si>
   <si>
-    <t>25/12/2019 - 23/12/2019</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -46,85 +46,16 @@
     <t>Sens</t>
   </si>
   <si>
-    <t>25/12/2019</t>
-  </si>
-  <si>
-    <t>‘Statement of Account: 2518XXXXXXXX0946 For Period: 26/9/2019 to</t>
-  </si>
-  <si>
-    <t>23/12/2019</t>
-  </si>
-  <si>
-    <t>|cr |88992 |218Z3SBIOC Ref No3000087061 ages 390.00 cw |ees.7= | UP7935119025907/"2V/sandeepchodhany@ybl/SANDEEP</t>
-  </si>
-  <si>
-    <t>226.14</t>
+    <t>52/38</t>
+  </si>
+  <si>
+    <t>raves] [780.00 [oR | 3773.78 | mPs-OUT/934616239787/S8INO0103160497052 jranarma| ——_|r29000 Jor |aszaze | veyssaccat '73747/P2V/singhsonall 1@yb¥Mr SONAL Tanzen9 || 3 32sa75 | UPYOR4SS71O2a09/P20/ens063;0DS—yb/ MOHHANMAD osnzans| ———[4ao [cr [233.78 [25te001s000t0946intPa:01-09-2019 to 30-11-2019 oarizremis[ [508.19 [DR [229.78 | uPv939006521318/P2M/IRCTCINAPR@YDINRCTC oanizanr9 | __|see for | ars7_[upvassesssa0ano/Pav/7e98767986@9bM ABDUL aivaois| ———_—«|240.28 [DR [227.97 | APBSREVRSAL DTD 01-06-2018 isniaris| ‘2 [oR [468.22 | ATM WOR 931919092498 +SINGHAL TOWER LABOUR ranveora[ zits? [er [2,468.22 [2187a8810C Ref Noz000072e41</t>
+  </si>
+  <si>
+    <t>000.00</t>
   </si>
   <si>
     <t>Cr</t>
-  </si>
-  <si>
-    <t>12/12/2019</t>
-  </si>
-  <si>
-    <t>3 [DR [273.78 | ATMWDR 934616013196 +SINGHAL TOWER LABOUR</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>Dr</t>
-  </si>
-  <si>
-    <t>[DR [3773.78 | IMPS-0UT/934616239787/SBIN00103160497052 ay 12s000 [or ]4sza.7e | U&gt;Y994664173747/°2V/singhsonalt1@yBVMr SONAL Haazene 300000 [or |z3s:7= | UpY994857102800/P2v/e860521005@ybUMOHHAMMAD</t>
-  </si>
-  <si>
-    <t>750.00</t>
-  </si>
-  <si>
-    <t>09/12/2019</t>
-  </si>
-  <si>
-    <t>400 [cR [ _[2518001500010946:Int.Pd:01-09-2019 to 30-11-2019</t>
-  </si>
-  <si>
-    <t>233.78</t>
-  </si>
-  <si>
-    <t>04/12/2019</t>
-  </si>
-  <si>
-    <t>[DR [229.78 | UP/933884521318/P2M/IRCTCINAPP@ybI/IRCTC ouaENTD siooo Jor |7a7s7 | YPvaaae6sse04e0/"2V/7838767986@yb/Mr ABDUL</t>
-  </si>
-  <si>
-    <t>508.19</t>
-  </si>
-  <si>
-    <t>21/11/2019</t>
-  </si>
-  <si>
-    <t>[DR [227.97 | APBS REVRSAL DTD 01-06-2018</t>
-  </si>
-  <si>
-    <t>240.25</t>
-  </si>
-  <si>
-    <t>15/11/2019</t>
-  </si>
-  <si>
-    <t>200000 [DR [ | ATM WOR 931919032498 +SINGHAL TOWER LABOUR</t>
-  </si>
-  <si>
-    <t>468.22</t>
-  </si>
-  <si>
-    <t>13/11/2019</t>
-  </si>
-  <si>
-    <t>|cR [2,468.22 |21BZ3SBIOC Ref No3000072841</t>
-  </si>
-  <si>
-    <t>211.57</t>
   </si>
 </sst>
 </file>
@@ -456,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,25 +397,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -509,117 +440,11 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
